--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed4/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>7.173999999999999</v>
+        <v>7.256000000000002</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.564</v>
+        <v>7.007000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.448</v>
+        <v>-7.479000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.184</v>
+        <v>6.314</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.007999999999999</v>
+        <v>-7.834999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.01</v>
+        <v>-13.061</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.542</v>
+        <v>-21.387</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.01</v>
+        <v>-12.626</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.097999999999999</v>
+        <v>-7.644000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -618,13 +618,13 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.403999999999999</v>
+        <v>7.122</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.742000000000001</v>
+        <v>-8.454000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.272</v>
+        <v>6.404999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -644,12 +644,12 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.01</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-21.812</v>
+        <v>-21.918</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.76</v>
+        <v>-20.84</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -729,12 +729,12 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>13.384</v>
+        <v>13.387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.282</v>
+        <v>-21.751</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -763,12 +763,12 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.794</v>
+        <v>13.169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.814</v>
+        <v>-21.664</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -788,13 +788,13 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.590000000000001</v>
+        <v>6.601999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.654</v>
+        <v>-12.282</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.938</v>
+        <v>-7.747</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>13.204</v>
+        <v>13.454</v>
       </c>
     </row>
     <row r="25">
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.742000000000001</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
